--- a/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Partidos Coligação Prefeito e Vice-Prefeito.xlsx
+++ b/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Partidos Coligação Prefeito e Vice-Prefeito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornecedores_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornec_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8622E2A6-BC98-7245-853F-3831884FDB92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7E8ED-4EDF-834A-AD4D-DEB3B927107B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{813F2826-0180-488A-8F4E-E465B9441DBC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="52">
   <si>
     <t>Cód. Eleição</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>CNPJ</t>
+  </si>
+  <si>
+    <t>DESPESAS BANCÁRIAS</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC128EAA-4A6D-4427-93E0-2122DAD54C17}" name="Tabela dinâmica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC128EAA-4A6D-4427-93E0-2122DAD54C17}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:D4" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2125,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC25C5B-6E85-4BFB-99DA-843746D88625}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:XFD4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2165,6 +2168,17 @@
       </c>
       <c r="D2">
         <v>0.99771575603224194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>2.2842439677580278E-3</v>
       </c>
     </row>
   </sheetData>

--- a/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Partidos Coligação Prefeito e Vice-Prefeito.xlsx
+++ b/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Partidos Coligação Prefeito e Vice-Prefeito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornec_pref/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornecedores_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7E8ED-4EDF-834A-AD4D-DEB3B927107B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C459BA8-6ABB-DB45-BDDA-32DDE96D933A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{813F2826-0180-488A-8F4E-E465B9441DBC}"/>
   </bookViews>
@@ -2131,7 +2131,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
